--- a/evaluation-files/problems_solutions_analysis/problems_solutions_analysis.xlsx
+++ b/evaluation-files/problems_solutions_analysis/problems_solutions_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manar\OneDrive\Desktop\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manar\OneDrive\Desktop\Final results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E282B8C8-B1DB-4F8F-8291-7CD31B89C462}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB403367-56AC-45A9-8C25-712E69349887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{D9E44EFD-E16A-45F7-9D11-FEA9EB621999}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{D9E44EFD-E16A-45F7-9D11-FEA9EB621999}"/>
   </bookViews>
   <sheets>
     <sheet name="cultural" sheetId="4" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="labels" sheetId="7" r:id="rId5"/>
     <sheet name="problems" sheetId="5" r:id="rId6"/>
     <sheet name="solution" sheetId="6" r:id="rId7"/>
+    <sheet name="solutions of problems" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="162">
   <si>
     <t>childcare</t>
   </si>
@@ -497,6 +498,36 @@
   <si>
     <t>labels</t>
   </si>
+  <si>
+    <t xml:space="preserve">good_daycare </t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>culture</t>
+  </si>
+  <si>
+    <t>Work_around,Good_daycare</t>
+  </si>
+  <si>
+    <t>workaround/solution/help_others/no_solution/change_workplace</t>
+  </si>
+  <si>
+    <t>No_solution</t>
+  </si>
+  <si>
+    <t>The mentioned solutions for the frequent problems</t>
+  </si>
+  <si>
+    <t>The problems</t>
+  </si>
+  <si>
+    <t>The mentioned solutions</t>
+  </si>
 </sst>
 </file>
 
@@ -563,7 +594,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -636,8 +667,20 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor theme="7" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -842,11 +885,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFD966"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFD966"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFD966"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -917,11 +997,69 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1060,36 +1198,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4115,9 +4223,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
@@ -12059,7 +12164,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>23</c:v>
@@ -18814,7 +18919,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{37F1A282-9373-44D1-AE81-724723EEAE3B}" name="Table9" displayName="Table9" ref="A1:F20" totalsRowShown="0" headerRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{37F1A282-9373-44D1-AE81-724723EEAE3B}" name="Table9" displayName="Table9" ref="A1:F20" totalsRowShown="0" headerRowDxfId="39">
   <autoFilter ref="A1:F20" xr:uid="{AE8D82E1-3F7B-4AF5-B3AA-9B6EE05BE755}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -18824,7 +18929,7 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{9532BD4D-E498-4836-85AA-C09A33B4A579}" name="Column1" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{9532BD4D-E498-4836-85AA-C09A33B4A579}" name="Column1" dataDxfId="38"/>
     <tableColumn id="2" xr3:uid="{309558DC-060B-47DA-AC3D-94AA024093BD}" name="cultural_religion"/>
     <tableColumn id="3" xr3:uid="{34DD3BCF-A0C6-40F1-BF03-7F09C2DA76A0}" name="cultural_clothing"/>
     <tableColumn id="4" xr3:uid="{025C44D8-23DD-45B3-9EEA-6C3F27E16C2E}" name="cultural_namechanging"/>
@@ -18838,7 +18943,7 @@
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{11E16D69-2EFD-4532-B71E-AFC47191389A}" name="Table25" displayName="Table25" ref="A2:C66" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B25DD047-C469-427F-9AEE-952F8A1B5E8D}" name="childcare" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{B25DD047-C469-427F-9AEE-952F8A1B5E8D}" name="childcare" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{EFAB7374-7F02-4F8B-8E04-8E0FDC62F274}" name="3"/>
     <tableColumn id="3" xr3:uid="{F1C2B6FF-4A11-43E2-8995-68B05F6E27EE}" name="Column1"/>
   </tableColumns>
@@ -18875,7 +18980,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{4727AB61-D212-4B8C-BE8D-AB5B9C8A41EB}" name="Table29" displayName="Table29" ref="G2:H20" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{4727AB61-D212-4B8C-BE8D-AB5B9C8A41EB}" name="Table29" displayName="Table29" ref="G2:H20" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="G2:H20" xr:uid="{D1585BA3-06B6-4FC6-90FC-F825D99B18EC}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{6EBC27CB-46E9-4C16-BC77-9462B8595AF8}" name="uniqe solution"/>
@@ -18899,12 +19004,55 @@
 </table>
 </file>
 
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25A5B0CC-628B-4C16-84F0-0C558B809C38}" name="Table1" displayName="Table1" ref="A15:D26" totalsRowShown="0">
+  <autoFilter ref="A15:D26" xr:uid="{9592F319-4AD3-458B-815B-A0C20607AB77}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{499B34BF-849D-48D6-9B06-3C3253E943E5}" name="problem"/>
+    <tableColumn id="2" xr3:uid="{E4FD4D36-7264-4742-B04D-826B8AA07472}" name="topic"/>
+    <tableColumn id="3" xr3:uid="{58835C0D-4109-43C5-B4C7-09E9E2816F11}" name="count"/>
+    <tableColumn id="4" xr3:uid="{D63A2735-BF27-4C9F-BBB6-16D8F819DAAC}" name="solution"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B1441332-980E-4CB9-A3BA-07DF462AA886}" name="Table6" displayName="Table6" ref="A29:D39" totalsRowShown="0">
+  <autoFilter ref="A29:D39" xr:uid="{A6A2702C-27A3-439C-888B-3C903271C9AB}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{4B9F0BF3-BAD4-427A-9387-A7DABB937EAA}" name="problem"/>
+    <tableColumn id="2" xr3:uid="{6206186B-4E1B-4C1F-B70F-31315CD9B1F3}" name="topic"/>
+    <tableColumn id="3" xr3:uid="{825AA865-BD99-4D68-9004-7EFCF568421E}" name="count"/>
+    <tableColumn id="4" xr3:uid="{1B582625-F043-444C-BB4F-C383D7C4077B}" name="solution"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{CC569019-AD1F-4BDE-A10E-130B4EE65B1B}" name="Table11" displayName="Table11" ref="A6:H9" totalsRowShown="0">
+  <autoFilter ref="A6:H9" xr:uid="{AEF84E75-5007-43EE-A434-5C96F685E35C}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{5A4F4B18-D465-42D5-A568-7548946E3590}" name="The mentioned solutions"/>
+    <tableColumn id="2" xr3:uid="{813FB63C-D036-43F3-9C97-2D72074A5ACB}" name="no_solution"/>
+    <tableColumn id="3" xr3:uid="{11A93353-87FD-4F41-9D6C-F9B7B1CA850F}" name="good_daycare "/>
+    <tableColumn id="4" xr3:uid="{44C148EA-6032-4F27-87FA-7EE320EC326C}" name="Work_around"/>
+    <tableColumn id="5" xr3:uid="{A8C0F07D-F90B-43EF-A85D-ED69431939D6}" name="change_workplace" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{0E71FFB3-3221-4462-8908-AB65A8B070A6}" name="solution"/>
+    <tableColumn id="7" xr3:uid="{342AF89C-12EA-4D8A-ADA4-8E27680F779C}" name="help_others"/>
+    <tableColumn id="8" xr3:uid="{E76EB9E8-6900-49C3-97D4-23C0B7B5F91C}" name="Strengthen_self-esteem"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4AFCFA14-1C50-431E-94EF-664C2A65BE0E}" name="Table7" displayName="Table7" ref="C34:H42" totalsRowShown="0">
   <autoFilter ref="C34:H42" xr:uid="{5C24617C-FBDF-4F2F-9755-186D19C5140E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EC36DDF7-AC55-424E-973B-3E9D2B2EFDC4}" name="Column1" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{242F1CBE-D886-4DF3-B56C-C726B343B15C}" name="personal_hormones_solution" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{EC36DDF7-AC55-424E-973B-3E9D2B2EFDC4}" name="Column1" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{242F1CBE-D886-4DF3-B56C-C726B343B15C}" name="personal_hormones_solution" dataDxfId="36"/>
     <tableColumn id="3" xr3:uid="{0F8B5757-E4E6-4621-868B-39DC09C858FA}" name="personal_lifeplan_solution"/>
     <tableColumn id="4" xr3:uid="{C9C0FD85-870F-4D2C-AD58-D6D3AB1C18E8}" name="personal_responsibilities_solution"/>
     <tableColumn id="5" xr3:uid="{519A23D3-6B22-418C-92FB-9D0623E6CFD1}" name="personal_pregnancy_solution"/>
@@ -18933,7 +19081,7 @@
     <filterColumn colId="13" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{2BAA999E-D6A4-47A0-B0CC-0E9F5CB09DA7}" name="Column1" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{2BAA999E-D6A4-47A0-B0CC-0E9F5CB09DA7}" name="Column1" dataDxfId="35"/>
     <tableColumn id="2" xr3:uid="{A4225E06-A4E6-45D6-8CE5-DA59CE3E2069}" name="childcare"/>
     <tableColumn id="3" xr3:uid="{0F9B3C4F-CA9A-40E0-A301-6560FECE55E7}" name="conflict_ability_across_women"/>
     <tableColumn id="4" xr3:uid="{7057C337-A343-49FA-BCA9-B7CA18B9CA54}" name="elder_care"/>
@@ -18953,7 +19101,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3E5C0B6A-04D2-4CAC-B2D7-3AF1D4B50D50}" name="Table2" displayName="Table2" ref="A1:F21" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3E5C0B6A-04D2-4CAC-B2D7-3AF1D4B50D50}" name="Table2" displayName="Table2" ref="A1:F21" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32">
   <autoFilter ref="A1:F21" xr:uid="{01D06CA9-F01B-4AB1-AF0C-021753386E4F}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -18966,7 +19114,7 @@
     <sortCondition ref="A2:A22"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{198417E6-FC5C-4356-AFBB-61C68579196D}" name="0" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{198417E6-FC5C-4356-AFBB-61C68579196D}" name="0" dataDxfId="31"/>
     <tableColumn id="2" xr3:uid="{05F63C8A-9D87-4330-9E3D-5D655E35249D}" name="work_equality"/>
     <tableColumn id="3" xr3:uid="{3B6B4105-9E06-4156-AA94-B9462D96B8A9}" name="work_unsupported"/>
     <tableColumn id="4" xr3:uid="{97FCC724-7CCA-48BC-A073-70F30FF4550E}" name="work_collaborations"/>
@@ -18978,7 +19126,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{78D9C6C0-679E-43A5-895C-3B5A31AAE8BE}" name="Table3" displayName="Table3" ref="A35:F42" totalsRowShown="0" headerRowDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{78D9C6C0-679E-43A5-895C-3B5A31AAE8BE}" name="Table3" displayName="Table3" ref="A35:F42" totalsRowShown="0" headerRowDxfId="30">
   <autoFilter ref="A35:F42" xr:uid="{951DA16D-EEAF-4553-824F-2FCDEA045665}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -19011,13 +19159,13 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{1FFAFFD0-EF3B-440F-A5E5-5F5E4849295B}" name="Column1" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{5AA8BD3C-C607-4836-9BB3-B6AA76D54C89}" name="technical_ideasharing" totalsRowDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{A70E3947-0BDC-4A52-8263-081D92CC1B1E}" name="technical_appreciation" totalsRowDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{D89E59A6-FEF0-4FB4-8095-594942E61F73}" name="technical_publications" totalsRowDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{2E1AF065-CDE6-4108-992A-49B9BC2D0F7D}" name="technical_researcher" totalsRowDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{3869FD50-3629-4A71-9521-C09BC74EBDFC}" name="technical_others" totalsRowDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{46972860-BB62-45A2-94F5-77112E313BE8}" name="sum" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19">
+    <tableColumn id="1" xr3:uid="{1FFAFFD0-EF3B-440F-A5E5-5F5E4849295B}" name="Column1" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{5AA8BD3C-C607-4836-9BB3-B6AA76D54C89}" name="technical_ideasharing" totalsRowDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{A70E3947-0BDC-4A52-8263-081D92CC1B1E}" name="technical_appreciation" totalsRowDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{D89E59A6-FEF0-4FB4-8095-594942E61F73}" name="technical_publications" totalsRowDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{2E1AF065-CDE6-4108-992A-49B9BC2D0F7D}" name="technical_researcher" totalsRowDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{3869FD50-3629-4A71-9521-C09BC74EBDFC}" name="technical_others" totalsRowDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{46972860-BB62-45A2-94F5-77112E313BE8}" name="sum" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21">
       <calculatedColumnFormula>SUM(Table4[[#This Row],[technical_ideasharing]:[technical_others]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19037,13 +19185,13 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{ED50EA76-7159-4C25-B628-889D8362D706}" name="Column1" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{E61AE76B-0971-47FB-A8E2-B098358227CA}" name="technical_ideasharing_solution" totalsRowDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{C2D3953D-F387-4121-A4C5-9AF449FFD247}" name="technical_appreciation_solution" totalsRowDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{67D9E2F6-62C9-4CB2-8244-4E49F3225993}" name="technical_publications_solution" totalsRowDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{712CDD81-9A75-47A9-926A-C63EA1252EC5}" name="technical_researcher_solution" totalsRowDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{2FFA1EAD-E647-4E21-AB2A-CE3CBF1A8991}" name="technical_others_solution" totalsRowDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{23675A25-4902-47FA-A6ED-442EC3EE16ED}" name="sum" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="1" xr3:uid="{ED50EA76-7159-4C25-B628-889D8362D706}" name="Column1" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{E61AE76B-0971-47FB-A8E2-B098358227CA}" name="technical_ideasharing_solution" totalsRowDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{C2D3953D-F387-4121-A4C5-9AF449FFD247}" name="technical_appreciation_solution" totalsRowDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{67D9E2F6-62C9-4CB2-8244-4E49F3225993}" name="technical_publications_solution" totalsRowDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{712CDD81-9A75-47A9-926A-C63EA1252EC5}" name="technical_researcher_solution" totalsRowDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{2FFA1EAD-E647-4E21-AB2A-CE3CBF1A8991}" name="technical_others_solution" totalsRowDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{23675A25-4902-47FA-A6ED-442EC3EE16ED}" name="sum" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>SUM(Table5[[#This Row],[technical_ideasharing_solution]:[technical_others_solution]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19066,11 +19214,11 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{FF5D691D-7D53-45D9-8DE2-59D0529E5285}" name="Table24" displayName="Table24" ref="H1:I40" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{FF5D691D-7D53-45D9-8DE2-59D0529E5285}" name="Table24" displayName="Table24" ref="H1:I40" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="H1:I40" xr:uid="{A624A467-D6DB-490F-9565-38793748A246}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{FF3C4D6B-ACE5-41F3-917E-B6570ABC4122}" name="Column1" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{0DEE920B-8551-45F0-8BA1-27E163ADB6FD}" name="count" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{FF3C4D6B-ACE5-41F3-917E-B6570ABC4122}" name="Column1" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{0DEE920B-8551-45F0-8BA1-27E163ADB6FD}" name="count" dataDxfId="7">
       <calculatedColumnFormula>SUMIF(A1:B104,Table24[[#This Row],[Column1]],A1:B104)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19377,8 +19525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7646258A-75E1-4CCA-ACF8-5293D35DB889}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19433,7 +19581,7 @@
       </c>
       <c r="J2">
         <f>SUM(G2:G19)</f>
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -19630,15 +19778,12 @@
       <c r="A16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -19707,7 +19852,7 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G21">
         <f>SUM(G2:G20)</f>
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -22069,7 +22214,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22080,10 +22225,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
         <v>145</v>
       </c>
     </row>
@@ -22163,10 +22310,12 @@
       <c r="E10" s="61"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13" t="s">
         <v>146</v>
       </c>
     </row>
@@ -22175,7 +22324,7 @@
         <v>140</v>
       </c>
       <c r="B12">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
         <v>140</v>
@@ -22229,7 +22378,7 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="48">
         <f>SUM(B12:B15)</f>
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E16" s="48">
         <f>SUM(E12:E15)</f>
@@ -22248,8 +22397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7ACA6A4-AB19-4E87-BC6C-2F0D5D23719D}">
   <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView topLeftCell="F4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView topLeftCell="F28" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22332,7 +22481,7 @@
         <v>8</v>
       </c>
       <c r="P2">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -22392,7 +22541,7 @@
         <v>8</v>
       </c>
       <c r="M4">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O4" t="s">
         <v>5</v>
@@ -22949,7 +23098,7 @@
         <f ca="1">SUMIF(A2:B104,Table24[[#This Row],[Column1]],B2:B104)</f>
         <v>2</v>
       </c>
-      <c r="L21" s="48" t="s">
+      <c r="L21" s="27" t="s">
         <v>82</v>
       </c>
       <c r="M21">
@@ -23112,7 +23261,7 @@
       </c>
       <c r="I26" s="54">
         <f ca="1">SUMIF(A2:B104,Table24[[#This Row],[Column1]],B2:B104)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L26" t="s">
         <v>98</v>
@@ -23432,7 +23581,7 @@
         <v>8</v>
       </c>
       <c r="B36">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
         <v>30</v>
@@ -23613,7 +23762,7 @@
         <v>8</v>
       </c>
       <c r="E45">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -23913,13 +24062,13 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="D1:E66">
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H38">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24568,4 +24717,508 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD99CB50-74C3-4794-850E-0485D9BD9206}">
+  <dimension ref="A1:L51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="61" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="K1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E2" s="62"/>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E3" s="62"/>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E4" s="62"/>
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E5" s="62"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="62"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="62">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E10" s="62"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E11" s="62"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E12" s="62"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E13" s="62"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E14" s="62"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="62"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="62"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="62"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="62"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="64"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D20" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="64"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="64"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="65"/>
+      <c r="H22" s="66"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="64"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="64"/>
+      <c r="H24" s="67"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="64"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="64"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E27" s="62"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E28" s="62"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="62"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="E30" s="62"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" s="62"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="E32" s="62"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="62"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="64"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="65"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="64"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="64"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="64"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D39" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="62"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E40" s="62"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E41" s="62"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E42" s="62"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E43" s="62"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="62"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>157</v>
+      </c>
+      <c r="E45" s="62"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="62"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E47" s="62"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="E48" s="62"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="64"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D50" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="62"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D51" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D19:D26">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>